--- a/name.xlsx
+++ b/name.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>松岸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>弗里恩（海落手下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗雷恩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅拉瑞德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐格斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +844,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -972,7 +998,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="145">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1039,6 +1065,13 @@
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1104,6 +1137,13 @@
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1432,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1625,7 +1665,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>102</v>
@@ -1717,6 +1757,9 @@
       <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>119</v>
       </c>
@@ -1740,6 +1783,9 @@
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>120</v>
       </c>
@@ -1771,8 +1817,11 @@
       <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>115</v>
+      <c r="D11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1786,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1800,7 +1849,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1814,7 +1863,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1828,7 +1877,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1842,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1856,7 +1905,7 @@
         <v>153</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1869,6 +1918,9 @@
       <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
@@ -1880,6 +1932,9 @@
       <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -1891,6 +1946,9 @@
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
@@ -2049,10 +2107,9 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
@@ -2060,67 +2117,52 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>182</v>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="4" t="s">
+      <c r="A53" s="4" t="s">
         <v>178</v>
       </c>
     </row>
